--- a/Sheets/Component-Wise Breakdown latest(AutoRecovered).xlsx
+++ b/Sheets/Component-Wise Breakdown latest(AutoRecovered).xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\Term-2 Sheet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Documents\Term-2 Sheet\Sheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9286C01C-7FA9-48CE-80A0-1C763179E56B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6009B72-8EEF-40A1-A507-BFE30ED31039}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="14620" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,6 @@
     <sheet name="Dates" sheetId="7" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -61,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7631" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7635" uniqueCount="370">
   <si>
     <t>Sl No</t>
   </si>
@@ -1562,10 +1561,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8424AE72-013A-4064-AB74-1C5F04F79D9D}" name="Table1" displayName="Table1" ref="A1:C21" totalsRowShown="0">
-  <autoFilter ref="A1:C21" xr:uid="{8424AE72-013A-4064-AB74-1C5F04F79D9D}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C16">
-    <sortCondition ref="A1:A16"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8424AE72-013A-4064-AB74-1C5F04F79D9D}" name="Table1" displayName="Table1" ref="A1:C23" totalsRowShown="0">
+  <autoFilter ref="A1:C23" xr:uid="{8424AE72-013A-4064-AB74-1C5F04F79D9D}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C17">
+    <sortCondition ref="A1:A17"/>
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{3D6F5E20-9FE2-470A-AA7E-B7B50822A5B6}" name="Dates" dataDxfId="0"/>
@@ -16745,7 +16744,7 @@
   <dimension ref="A1:K160"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -50630,10 +50629,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:XFD20"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -50776,32 +50775,32 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" s="35">
-        <v>45248</v>
+        <v>45246</v>
       </c>
       <c r="B13" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="C13" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" s="35">
-        <v>45250</v>
+        <v>45248</v>
       </c>
       <c r="B14" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C14" t="s">
-        <v>340</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" s="35">
-        <v>45253</v>
+        <v>45250</v>
       </c>
       <c r="B15" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C15" t="s">
         <v>340</v>
@@ -50809,21 +50808,21 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="35">
-        <v>45254</v>
+        <v>45253</v>
       </c>
       <c r="B16" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="C16" t="s">
-        <v>6</v>
+        <v>340</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" s="35">
-        <v>45255</v>
+        <v>45254</v>
       </c>
       <c r="B17" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C17" t="s">
         <v>6</v>
@@ -50831,10 +50830,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" s="35">
-        <v>45256</v>
+        <v>45255</v>
       </c>
       <c r="B18" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="C18" t="s">
         <v>6</v>
@@ -50842,10 +50841,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="35">
-        <v>45257</v>
+        <v>45256</v>
       </c>
       <c r="B19" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="C19" t="s">
         <v>6</v>
@@ -50853,12 +50852,34 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" s="35">
+        <v>45257</v>
+      </c>
+      <c r="B20" t="s">
+        <v>367</v>
+      </c>
+      <c r="C20" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A21" s="35">
+        <v>45258</v>
+      </c>
+      <c r="B21" t="s">
+        <v>368</v>
+      </c>
+      <c r="C21" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A22" s="35">
         <v>45259</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B22" t="s">
         <v>364</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C22" t="s">
         <v>6</v>
       </c>
     </row>
